--- a/assets/timeSheet-Stanley-Kenneth.xlsx
+++ b/assets/timeSheet-Stanley-Kenneth.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\visualpartsdb.com\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8542071D-D468-4AB1-B147-84E083BE0C42}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6DB1785-DCCF-4CE3-9B04-7EA7431C0EE2}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1830" yWindow="570" windowWidth="24930" windowHeight="14775" tabRatio="560" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="30" windowWidth="29040" windowHeight="15840" tabRatio="560" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Week 1" sheetId="1" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="31">
   <si>
     <t>Weekley Total</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -143,6 +143,9 @@
   </si>
   <si>
     <t xml:space="preserve">Found that my CSS does not work on Electrolux IE or Edge. They rarely do windows updates so I will have to consider ways for Grid to work with their browsers. After a bit a looking, I found no way to fix this other than to write all of the CSS code to something other than grid. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Worked on CSS styling issues. </t>
   </si>
 </sst>
 </file>
@@ -157,12 +160,14 @@
     <font>
       <sz val="8"/>
       <name val="Verdana"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Verdana"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -824,7 +829,7 @@
       </c>
       <c r="E21">
         <f>E20+'Week 9'!E21</f>
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -889,7 +894,7 @@
       </c>
       <c r="E21">
         <f>E20+'Week 10'!E21</f>
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -954,7 +959,7 @@
       </c>
       <c r="E21">
         <f>E20+'Week 11'!E21</f>
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -1019,7 +1024,7 @@
       </c>
       <c r="E21">
         <f>E20+'Week 12'!E21</f>
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -1084,7 +1089,7 @@
       </c>
       <c r="E21">
         <f>E20+'Week 13'!E21</f>
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -1149,7 +1154,7 @@
       </c>
       <c r="E21">
         <f>E20+'Week 14'!E21</f>
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -1214,7 +1219,7 @@
       </c>
       <c r="E21">
         <f>E20+'Week 14'!E21</f>
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -1625,7 +1630,7 @@
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1703,7 +1708,21 @@
       </c>
     </row>
     <row r="5" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D5" s="8"/>
+      <c r="A5" s="5">
+        <v>42035</v>
+      </c>
+      <c r="B5" s="6">
+        <v>0.25</v>
+      </c>
+      <c r="C5" s="6">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5">
+        <v>4</v>
+      </c>
     </row>
     <row r="6" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D6" s="8"/>
@@ -1729,7 +1748,7 @@
       </c>
       <c r="E14">
         <f>SUM(E2:E13)</f>
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -1738,7 +1757,7 @@
       </c>
       <c r="E15">
         <f>E14+'Week 3'!E16</f>
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -1762,7 +1781,7 @@
   <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView view="pageLayout" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="E2" sqref="A2:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1788,6 +1807,12 @@
         <v>5</v>
       </c>
     </row>
+    <row r="2" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="5"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="7"/>
+    </row>
     <row r="20" spans="4:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D20" s="4" t="s">
         <v>0</v>
@@ -1803,7 +1828,7 @@
       </c>
       <c r="E21">
         <f>E20+'Week 4'!E15</f>
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -1868,7 +1893,7 @@
       </c>
       <c r="E21">
         <f>E20+'Week 5'!E21</f>
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -1933,7 +1958,7 @@
       </c>
       <c r="E21">
         <f>E20+'Week 6'!E21</f>
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -1998,7 +2023,7 @@
       </c>
       <c r="E21">
         <f>E20+'Week 7'!E21</f>
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -2063,7 +2088,7 @@
       </c>
       <c r="E21">
         <f>E20+'Week 8'!E21</f>
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>

--- a/assets/timeSheet-Stanley-Kenneth.xlsx
+++ b/assets/timeSheet-Stanley-Kenneth.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\visualpartsdb.com\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6DB1785-DCCF-4CE3-9B04-7EA7431C0EE2}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{467655BD-86EA-46C8-B691-F45B80AD1358}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="30" windowWidth="29040" windowHeight="15840" tabRatio="560" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="120" windowWidth="24930" windowHeight="15090" tabRatio="560" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Week 1" sheetId="1" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="33">
   <si>
     <t>Weekley Total</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -146,6 +146,12 @@
   </si>
   <si>
     <t xml:space="preserve">Worked on CSS styling issues. </t>
+  </si>
+  <si>
+    <t>Worked on registering new users. We do not allow just anyone to register so I had to create a method for an admin to send a registration request to someone. They are sent a link with a code. Once they click the link and set their password their account is created.  CSS tweaks.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Continued to work on the registering method. Considering restructing the method to have less database calls. </t>
   </si>
 </sst>
 </file>
@@ -829,7 +835,7 @@
       </c>
       <c r="E21">
         <f>E20+'Week 9'!E21</f>
-        <v>104</v>
+        <v>112</v>
       </c>
     </row>
   </sheetData>
@@ -894,7 +900,7 @@
       </c>
       <c r="E21">
         <f>E20+'Week 10'!E21</f>
-        <v>104</v>
+        <v>112</v>
       </c>
     </row>
   </sheetData>
@@ -959,7 +965,7 @@
       </c>
       <c r="E21">
         <f>E20+'Week 11'!E21</f>
-        <v>104</v>
+        <v>112</v>
       </c>
     </row>
   </sheetData>
@@ -1024,7 +1030,7 @@
       </c>
       <c r="E21">
         <f>E20+'Week 12'!E21</f>
-        <v>104</v>
+        <v>112</v>
       </c>
     </row>
   </sheetData>
@@ -1089,7 +1095,7 @@
       </c>
       <c r="E21">
         <f>E20+'Week 13'!E21</f>
-        <v>104</v>
+        <v>112</v>
       </c>
     </row>
   </sheetData>
@@ -1154,7 +1160,7 @@
       </c>
       <c r="E21">
         <f>E20+'Week 14'!E21</f>
-        <v>104</v>
+        <v>112</v>
       </c>
     </row>
   </sheetData>
@@ -1219,7 +1225,7 @@
       </c>
       <c r="E21">
         <f>E20+'Week 14'!E21</f>
-        <v>104</v>
+        <v>112</v>
       </c>
     </row>
   </sheetData>
@@ -1629,8 +1635,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView view="pageLayout" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1780,8 +1786,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView view="pageLayout" workbookViewId="0">
-      <selection activeCell="E2" sqref="A2:E2"/>
+    <sheetView tabSelected="1" view="pageLayout" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1807,11 +1813,45 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="5"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="7"/>
+    <row r="2" spans="1:5" ht="77.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="5">
+        <v>42038</v>
+      </c>
+      <c r="B2" s="11">
+        <v>0.25</v>
+      </c>
+      <c r="C2" s="6">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="95.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="5">
+        <v>42040</v>
+      </c>
+      <c r="B3" s="11">
+        <v>0.25</v>
+      </c>
+      <c r="C3" s="6">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="E3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="5"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="7"/>
     </row>
     <row r="20" spans="4:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D20" s="4" t="s">
@@ -1819,7 +1859,7 @@
       </c>
       <c r="E20">
         <f>SUM(E2:E19)</f>
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="21" spans="4:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -1828,7 +1868,7 @@
       </c>
       <c r="E21">
         <f>E20+'Week 4'!E15</f>
-        <v>104</v>
+        <v>112</v>
       </c>
     </row>
   </sheetData>
@@ -1893,7 +1933,7 @@
       </c>
       <c r="E21">
         <f>E20+'Week 5'!E21</f>
-        <v>104</v>
+        <v>112</v>
       </c>
     </row>
   </sheetData>
@@ -1958,7 +1998,7 @@
       </c>
       <c r="E21">
         <f>E20+'Week 6'!E21</f>
-        <v>104</v>
+        <v>112</v>
       </c>
     </row>
   </sheetData>
@@ -2023,7 +2063,7 @@
       </c>
       <c r="E21">
         <f>E20+'Week 7'!E21</f>
-        <v>104</v>
+        <v>112</v>
       </c>
     </row>
   </sheetData>
@@ -2088,7 +2128,7 @@
       </c>
       <c r="E21">
         <f>E20+'Week 8'!E21</f>
-        <v>104</v>
+        <v>112</v>
       </c>
     </row>
   </sheetData>

--- a/assets/timeSheet-Stanley-Kenneth.xlsx
+++ b/assets/timeSheet-Stanley-Kenneth.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\visualpartsdb.com\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{467655BD-86EA-46C8-B691-F45B80AD1358}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98520D5E-48AF-4C28-8997-4C2534AC3137}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="24930" windowHeight="15090" tabRatio="560" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-27840" yWindow="885" windowWidth="24930" windowHeight="14775" tabRatio="560" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Week 1" sheetId="1" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="34">
   <si>
     <t>Weekley Total</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -152,6 +152,9 @@
   </si>
   <si>
     <t xml:space="preserve">Continued to work on the registering method. Considering restructing the method to have less database calls. </t>
+  </si>
+  <si>
+    <t>Hamburger work</t>
   </si>
 </sst>
 </file>
@@ -252,7 +255,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -275,7 +278,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="18" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -708,7 +710,7 @@
       <c r="D5" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="10">
+      <c r="E5" s="7">
         <v>2</v>
       </c>
     </row>
@@ -719,13 +721,13 @@
       <c r="B6" s="6">
         <v>0.75</v>
       </c>
-      <c r="C6" s="11">
+      <c r="C6" s="10">
         <v>0.79166666666666663</v>
       </c>
       <c r="D6" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="10">
+      <c r="E6" s="7">
         <v>1</v>
       </c>
     </row>
@@ -835,7 +837,7 @@
       </c>
       <c r="E21">
         <f>E20+'Week 9'!E21</f>
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
   </sheetData>
@@ -900,7 +902,7 @@
       </c>
       <c r="E21">
         <f>E20+'Week 10'!E21</f>
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
   </sheetData>
@@ -965,7 +967,7 @@
       </c>
       <c r="E21">
         <f>E20+'Week 11'!E21</f>
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
   </sheetData>
@@ -1030,7 +1032,7 @@
       </c>
       <c r="E21">
         <f>E20+'Week 12'!E21</f>
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
   </sheetData>
@@ -1095,7 +1097,7 @@
       </c>
       <c r="E21">
         <f>E20+'Week 13'!E21</f>
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
   </sheetData>
@@ -1160,7 +1162,7 @@
       </c>
       <c r="E21">
         <f>E20+'Week 14'!E21</f>
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
   </sheetData>
@@ -1225,7 +1227,7 @@
       </c>
       <c r="E21">
         <f>E20+'Week 14'!E21</f>
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
   </sheetData>
@@ -1309,7 +1311,7 @@
       <c r="A4" s="5">
         <v>42015</v>
       </c>
-      <c r="B4" s="11">
+      <c r="B4" s="10">
         <v>0.58333333333333337</v>
       </c>
       <c r="C4" s="6">
@@ -1786,7 +1788,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" workbookViewId="0">
+    <sheetView view="pageLayout" workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
@@ -1817,7 +1819,7 @@
       <c r="A2" s="5">
         <v>42038</v>
       </c>
-      <c r="B2" s="11">
+      <c r="B2" s="10">
         <v>0.25</v>
       </c>
       <c r="C2" s="6">
@@ -1834,7 +1836,7 @@
       <c r="A3" s="5">
         <v>42040</v>
       </c>
-      <c r="B3" s="11">
+      <c r="B3" s="10">
         <v>0.25</v>
       </c>
       <c r="C3" s="6">
@@ -1849,7 +1851,7 @@
     </row>
     <row r="4" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5"/>
-      <c r="B4" s="11"/>
+      <c r="B4" s="10"/>
       <c r="C4" s="6"/>
       <c r="D4" s="7"/>
     </row>
@@ -1891,8 +1893,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView view="pageLayout" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" view="pageLayout" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1918,13 +1920,30 @@
         <v>5</v>
       </c>
     </row>
+    <row r="2" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="5">
+        <v>38758</v>
+      </c>
+      <c r="B2" s="6">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="C2" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+    </row>
     <row r="20" spans="4:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D20" s="4" t="s">
         <v>0</v>
       </c>
       <c r="E20">
         <f>SUM(E2:E19)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="4:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -1933,7 +1952,7 @@
       </c>
       <c r="E21">
         <f>E20+'Week 5'!E21</f>
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
   </sheetData>
@@ -1998,7 +2017,7 @@
       </c>
       <c r="E21">
         <f>E20+'Week 6'!E21</f>
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
   </sheetData>
@@ -2063,7 +2082,7 @@
       </c>
       <c r="E21">
         <f>E20+'Week 7'!E21</f>
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
   </sheetData>
@@ -2128,7 +2147,7 @@
       </c>
       <c r="E21">
         <f>E20+'Week 8'!E21</f>
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
   </sheetData>

--- a/assets/timeSheet-Stanley-Kenneth.xlsx
+++ b/assets/timeSheet-Stanley-Kenneth.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\visualpartsdb.com\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98520D5E-48AF-4C28-8997-4C2534AC3137}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07D21417-D846-4470-B02E-0C9A636A9C55}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-27840" yWindow="885" windowWidth="24930" windowHeight="14775" tabRatio="560" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1755" yWindow="975" windowWidth="24930" windowHeight="14775" tabRatio="560" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Week 1" sheetId="1" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="36">
   <si>
     <t>Weekley Total</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -154,7 +154,13 @@
     <t xml:space="preserve">Continued to work on the registering method. Considering restructing the method to have less database calls. </t>
   </si>
   <si>
-    <t>Hamburger work</t>
+    <t>Hamburger menu work</t>
+  </si>
+  <si>
+    <t>Started developing the admin sections with C3 and D3 dashboards</t>
+  </si>
+  <si>
+    <t>Bug fixes with user registeration. Spoke with the team at my job today. They have requested a few changes that I took notes of and will work on this weekend.</t>
   </si>
 </sst>
 </file>
@@ -837,7 +843,7 @@
       </c>
       <c r="E21">
         <f>E20+'Week 9'!E21</f>
-        <v>113</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -902,7 +908,7 @@
       </c>
       <c r="E21">
         <f>E20+'Week 10'!E21</f>
-        <v>113</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -967,7 +973,7 @@
       </c>
       <c r="E21">
         <f>E20+'Week 11'!E21</f>
-        <v>113</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -1032,7 +1038,7 @@
       </c>
       <c r="E21">
         <f>E20+'Week 12'!E21</f>
-        <v>113</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -1097,7 +1103,7 @@
       </c>
       <c r="E21">
         <f>E20+'Week 13'!E21</f>
-        <v>113</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -1162,7 +1168,7 @@
       </c>
       <c r="E21">
         <f>E20+'Week 14'!E21</f>
-        <v>113</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -1227,7 +1233,7 @@
       </c>
       <c r="E21">
         <f>E20+'Week 14'!E21</f>
-        <v>113</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -1894,7 +1900,7 @@
   <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1922,7 +1928,7 @@
     </row>
     <row r="2" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5">
-        <v>38758</v>
+        <v>42045</v>
       </c>
       <c r="B2" s="6">
         <v>0.45833333333333331</v>
@@ -1937,13 +1943,47 @@
         <v>1</v>
       </c>
     </row>
+    <row r="3" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A3" s="5">
+        <v>42047</v>
+      </c>
+      <c r="B3" s="10">
+        <v>0.25</v>
+      </c>
+      <c r="C3" s="6">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+      <c r="A4" s="5">
+        <v>42048</v>
+      </c>
+      <c r="B4" s="6">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="C4" s="6">
+        <v>0</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+    </row>
     <row r="20" spans="4:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D20" s="4" t="s">
         <v>0</v>
       </c>
       <c r="E20">
         <f>SUM(E2:E19)</f>
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="21" spans="4:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -1952,7 +1992,7 @@
       </c>
       <c r="E21">
         <f>E20+'Week 5'!E21</f>
-        <v>113</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -2017,7 +2057,7 @@
       </c>
       <c r="E21">
         <f>E20+'Week 6'!E21</f>
-        <v>113</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -2082,7 +2122,7 @@
       </c>
       <c r="E21">
         <f>E20+'Week 7'!E21</f>
-        <v>113</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -2147,7 +2187,7 @@
       </c>
       <c r="E21">
         <f>E20+'Week 8'!E21</f>
-        <v>113</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>

--- a/assets/timeSheet-Stanley-Kenneth.xlsx
+++ b/assets/timeSheet-Stanley-Kenneth.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21328"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\visualpartsdb.com\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07D21417-D846-4470-B02E-0C9A636A9C55}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3C71691-C6A1-4100-9A71-188CE6F4289D}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1755" yWindow="975" windowWidth="24930" windowHeight="14775" tabRatio="560" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="30" windowWidth="29040" windowHeight="15840" tabRatio="560" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Week 1" sheetId="1" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="39">
   <si>
     <t>Weekley Total</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -161,6 +161,15 @@
   </si>
   <si>
     <t>Bug fixes with user registeration. Spoke with the team at my job today. They have requested a few changes that I took notes of and will work on this weekend.</t>
+  </si>
+  <si>
+    <t>6:00am</t>
+  </si>
+  <si>
+    <t>10:00am</t>
+  </si>
+  <si>
+    <t>Worked on the user list fuctions</t>
   </si>
 </sst>
 </file>
@@ -843,7 +852,7 @@
       </c>
       <c r="E21">
         <f>E20+'Week 9'!E21</f>
-        <v>119</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -908,7 +917,7 @@
       </c>
       <c r="E21">
         <f>E20+'Week 10'!E21</f>
-        <v>119</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -973,7 +982,7 @@
       </c>
       <c r="E21">
         <f>E20+'Week 11'!E21</f>
-        <v>119</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -1038,7 +1047,7 @@
       </c>
       <c r="E21">
         <f>E20+'Week 12'!E21</f>
-        <v>119</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -1103,7 +1112,7 @@
       </c>
       <c r="E21">
         <f>E20+'Week 13'!E21</f>
-        <v>119</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -1168,7 +1177,7 @@
       </c>
       <c r="E21">
         <f>E20+'Week 14'!E21</f>
-        <v>119</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -1233,7 +1242,7 @@
       </c>
       <c r="E21">
         <f>E20+'Week 14'!E21</f>
-        <v>119</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -1899,7 +1908,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" workbookViewId="0">
+    <sheetView view="pageLayout" workbookViewId="0">
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
@@ -2015,8 +2024,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView view="pageLayout" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" view="pageLayout" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2042,13 +2051,30 @@
         <v>5</v>
       </c>
     </row>
+    <row r="2" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="5">
+        <v>42052</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E2">
+        <v>4</v>
+      </c>
+    </row>
     <row r="20" spans="4:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D20" s="4" t="s">
         <v>0</v>
       </c>
       <c r="E20">
         <f>SUM(E2:E19)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="4:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -2057,7 +2083,7 @@
       </c>
       <c r="E21">
         <f>E20+'Week 6'!E21</f>
-        <v>119</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -2122,7 +2148,7 @@
       </c>
       <c r="E21">
         <f>E20+'Week 7'!E21</f>
-        <v>119</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -2187,7 +2213,7 @@
       </c>
       <c r="E21">
         <f>E20+'Week 8'!E21</f>
-        <v>119</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>

--- a/assets/timeSheet-Stanley-Kenneth.xlsx
+++ b/assets/timeSheet-Stanley-Kenneth.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\visualpartsdb.com\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3C71691-C6A1-4100-9A71-188CE6F4289D}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9ADE3E21-BB98-4515-925E-C3AE9AF36ED5}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="30" windowWidth="29040" windowHeight="15840" tabRatio="560" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28935" yWindow="-16170" windowWidth="29040" windowHeight="15840" tabRatio="560" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Week 1" sheetId="1" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="41">
   <si>
     <t>Weekley Total</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -170,6 +170,12 @@
   </si>
   <si>
     <t>Worked on the user list fuctions</t>
+  </si>
+  <si>
+    <t>Researched front end design to incorporate into my web application. Started working with Refactoring UI and watching the videos</t>
+  </si>
+  <si>
+    <t>Continued studying Refactoring UI. I will begin implementation this weekend.</t>
   </si>
 </sst>
 </file>
@@ -852,7 +858,7 @@
       </c>
       <c r="E21">
         <f>E20+'Week 9'!E21</f>
-        <v>123</v>
+        <v>131</v>
       </c>
     </row>
   </sheetData>
@@ -917,7 +923,7 @@
       </c>
       <c r="E21">
         <f>E20+'Week 10'!E21</f>
-        <v>123</v>
+        <v>131</v>
       </c>
     </row>
   </sheetData>
@@ -982,7 +988,7 @@
       </c>
       <c r="E21">
         <f>E20+'Week 11'!E21</f>
-        <v>123</v>
+        <v>131</v>
       </c>
     </row>
   </sheetData>
@@ -1047,7 +1053,7 @@
       </c>
       <c r="E21">
         <f>E20+'Week 12'!E21</f>
-        <v>123</v>
+        <v>131</v>
       </c>
     </row>
   </sheetData>
@@ -1112,7 +1118,7 @@
       </c>
       <c r="E21">
         <f>E20+'Week 13'!E21</f>
-        <v>123</v>
+        <v>131</v>
       </c>
     </row>
   </sheetData>
@@ -1177,7 +1183,7 @@
       </c>
       <c r="E21">
         <f>E20+'Week 14'!E21</f>
-        <v>123</v>
+        <v>131</v>
       </c>
     </row>
   </sheetData>
@@ -1242,7 +1248,7 @@
       </c>
       <c r="E21">
         <f>E20+'Week 14'!E21</f>
-        <v>123</v>
+        <v>131</v>
       </c>
     </row>
   </sheetData>
@@ -1322,7 +1328,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="102" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" ht="114.75" x14ac:dyDescent="0.2">
       <c r="A4" s="5">
         <v>42015</v>
       </c>
@@ -2024,7 +2030,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" workbookViewId="0">
+    <sheetView view="pageLayout" workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
@@ -2106,8 +2112,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView view="pageLayout" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" view="pageLayout" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2133,13 +2139,89 @@
         <v>5</v>
       </c>
     </row>
+    <row r="2" spans="1:5" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A2" s="5">
+        <v>42059</v>
+      </c>
+      <c r="B2" s="6">
+        <v>0.25</v>
+      </c>
+      <c r="C2" s="6">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="E2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A3" s="5">
+        <v>42060</v>
+      </c>
+      <c r="B3" s="6">
+        <v>0.25</v>
+      </c>
+      <c r="C3" s="6">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="E3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D4" s="8"/>
+    </row>
+    <row r="5" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D5" s="8"/>
+    </row>
+    <row r="6" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D6" s="8"/>
+    </row>
+    <row r="7" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D7" s="8"/>
+    </row>
+    <row r="8" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D8" s="8"/>
+    </row>
+    <row r="9" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D9" s="8"/>
+    </row>
+    <row r="10" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D10" s="8"/>
+    </row>
+    <row r="11" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D11" s="8"/>
+    </row>
+    <row r="12" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D12" s="8"/>
+    </row>
+    <row r="13" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D13" s="8"/>
+    </row>
+    <row r="14" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D14" s="8"/>
+    </row>
+    <row r="15" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D15" s="8"/>
+    </row>
+    <row r="16" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D16" s="8"/>
+    </row>
+    <row r="17" spans="4:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D17" s="8"/>
+    </row>
     <row r="20" spans="4:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D20" s="4" t="s">
         <v>0</v>
       </c>
       <c r="E20">
         <f>SUM(E2:E19)</f>
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="21" spans="4:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -2148,7 +2230,7 @@
       </c>
       <c r="E21">
         <f>E20+'Week 7'!E21</f>
-        <v>123</v>
+        <v>131</v>
       </c>
     </row>
   </sheetData>
@@ -2213,7 +2295,7 @@
       </c>
       <c r="E21">
         <f>E20+'Week 8'!E21</f>
-        <v>123</v>
+        <v>131</v>
       </c>
     </row>
   </sheetData>

--- a/assets/timeSheet-Stanley-Kenneth.xlsx
+++ b/assets/timeSheet-Stanley-Kenneth.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\visualpartsdb.com\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9ADE3E21-BB98-4515-925E-C3AE9AF36ED5}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A67EC274-0006-41AD-A0F6-2DE802D10089}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28935" yWindow="-16170" windowWidth="29040" windowHeight="15840" tabRatio="560" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="30" windowWidth="29040" windowHeight="15840" tabRatio="560" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Week 1" sheetId="1" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="42">
   <si>
     <t>Weekley Total</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -176,6 +176,9 @@
   </si>
   <si>
     <t>Continued studying Refactoring UI. I will begin implementation this weekend.</t>
+  </si>
+  <si>
+    <t>Developed the My List function of the website.</t>
   </si>
 </sst>
 </file>
@@ -858,7 +861,7 @@
       </c>
       <c r="E21">
         <f>E20+'Week 9'!E21</f>
-        <v>131</v>
+        <v>136</v>
       </c>
     </row>
   </sheetData>
@@ -923,7 +926,7 @@
       </c>
       <c r="E21">
         <f>E20+'Week 10'!E21</f>
-        <v>131</v>
+        <v>136</v>
       </c>
     </row>
   </sheetData>
@@ -988,7 +991,7 @@
       </c>
       <c r="E21">
         <f>E20+'Week 11'!E21</f>
-        <v>131</v>
+        <v>136</v>
       </c>
     </row>
   </sheetData>
@@ -1053,7 +1056,7 @@
       </c>
       <c r="E21">
         <f>E20+'Week 12'!E21</f>
-        <v>131</v>
+        <v>136</v>
       </c>
     </row>
   </sheetData>
@@ -1118,7 +1121,7 @@
       </c>
       <c r="E21">
         <f>E20+'Week 13'!E21</f>
-        <v>131</v>
+        <v>136</v>
       </c>
     </row>
   </sheetData>
@@ -1183,7 +1186,7 @@
       </c>
       <c r="E21">
         <f>E20+'Week 14'!E21</f>
-        <v>131</v>
+        <v>136</v>
       </c>
     </row>
   </sheetData>
@@ -1248,7 +1251,7 @@
       </c>
       <c r="E21">
         <f>E20+'Week 14'!E21</f>
-        <v>131</v>
+        <v>136</v>
       </c>
     </row>
   </sheetData>
@@ -2112,7 +2115,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" workbookViewId="0">
+    <sheetView view="pageLayout" workbookViewId="0">
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
@@ -2253,8 +2256,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView view="pageLayout" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" view="pageLayout" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2280,13 +2283,30 @@
         <v>5</v>
       </c>
     </row>
+    <row r="2" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="5">
+        <v>42067</v>
+      </c>
+      <c r="B2" s="6">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="C2" s="10">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="E2">
+        <v>5</v>
+      </c>
+    </row>
     <row r="20" spans="4:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D20" s="4" t="s">
         <v>0</v>
       </c>
       <c r="E20">
         <f>SUM(E2:E19)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21" spans="4:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -2295,7 +2315,7 @@
       </c>
       <c r="E21">
         <f>E20+'Week 8'!E21</f>
-        <v>131</v>
+        <v>136</v>
       </c>
     </row>
   </sheetData>

--- a/assets/timeSheet-Stanley-Kenneth.xlsx
+++ b/assets/timeSheet-Stanley-Kenneth.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\visualpartsdb.com\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A67EC274-0006-41AD-A0F6-2DE802D10089}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2409A96-378F-4E40-8A9B-3183D0537B84}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="30" windowWidth="29040" windowHeight="15840" tabRatio="560" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="43">
   <si>
     <t>Weekley Total</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -179,6 +179,9 @@
   </si>
   <si>
     <t>Developed the My List function of the website.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Continued working on the "My List" function of the website. </t>
   </si>
 </sst>
 </file>
@@ -861,7 +864,7 @@
       </c>
       <c r="E21">
         <f>E20+'Week 9'!E21</f>
-        <v>136</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>
@@ -926,7 +929,7 @@
       </c>
       <c r="E21">
         <f>E20+'Week 10'!E21</f>
-        <v>136</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>
@@ -991,7 +994,7 @@
       </c>
       <c r="E21">
         <f>E20+'Week 11'!E21</f>
-        <v>136</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>
@@ -1056,7 +1059,7 @@
       </c>
       <c r="E21">
         <f>E20+'Week 12'!E21</f>
-        <v>136</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>
@@ -1121,7 +1124,7 @@
       </c>
       <c r="E21">
         <f>E20+'Week 13'!E21</f>
-        <v>136</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>
@@ -1186,7 +1189,7 @@
       </c>
       <c r="E21">
         <f>E20+'Week 14'!E21</f>
-        <v>136</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>
@@ -1251,7 +1254,7 @@
       </c>
       <c r="E21">
         <f>E20+'Week 14'!E21</f>
-        <v>136</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>
@@ -2257,7 +2260,7 @@
   <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2293,12 +2296,62 @@
       <c r="C2" s="10">
         <v>0.54166666666666663</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="9" t="s">
         <v>41</v>
       </c>
       <c r="E2">
         <v>5</v>
       </c>
+    </row>
+    <row r="3" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A3" s="5">
+        <v>42068</v>
+      </c>
+      <c r="B3" s="6">
+        <v>0.25</v>
+      </c>
+      <c r="C3" s="6">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="E3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D4" s="8"/>
+    </row>
+    <row r="5" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D5" s="8"/>
+    </row>
+    <row r="6" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D6" s="8"/>
+    </row>
+    <row r="7" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D7" s="8"/>
+    </row>
+    <row r="8" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D8" s="8"/>
+    </row>
+    <row r="9" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D9" s="8"/>
+    </row>
+    <row r="10" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D10" s="8"/>
+    </row>
+    <row r="11" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D11" s="8"/>
+    </row>
+    <row r="12" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D12" s="8"/>
+    </row>
+    <row r="13" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D13" s="8"/>
+    </row>
+    <row r="14" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D14" s="8"/>
     </row>
     <row r="20" spans="4:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D20" s="4" t="s">
@@ -2306,7 +2359,7 @@
       </c>
       <c r="E20">
         <f>SUM(E2:E19)</f>
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="21" spans="4:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -2315,7 +2368,7 @@
       </c>
       <c r="E21">
         <f>E20+'Week 8'!E21</f>
-        <v>136</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>

--- a/assets/timeSheet-Stanley-Kenneth.xlsx
+++ b/assets/timeSheet-Stanley-Kenneth.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\visualpartsdb.com\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2409A96-378F-4E40-8A9B-3183D0537B84}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{157B7F10-84B5-4D37-824A-5BCB86CC6214}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="30" windowWidth="29040" windowHeight="15840" tabRatio="560" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-27555" yWindow="2280" windowWidth="28440" windowHeight="14310" tabRatio="560" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Week 1" sheetId="1" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="44">
   <si>
     <t>Weekley Total</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -182,6 +182,9 @@
   </si>
   <si>
     <t xml:space="preserve">Continued working on the "My List" function of the website. </t>
+  </si>
+  <si>
+    <t>Completed the "My List" functions. Started on the export functions to excel for "My List"</t>
   </si>
 </sst>
 </file>
@@ -864,7 +867,7 @@
       </c>
       <c r="E21">
         <f>E20+'Week 9'!E21</f>
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>
@@ -929,7 +932,7 @@
       </c>
       <c r="E21">
         <f>E20+'Week 10'!E21</f>
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>
@@ -994,7 +997,7 @@
       </c>
       <c r="E21">
         <f>E20+'Week 11'!E21</f>
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>
@@ -1059,7 +1062,7 @@
       </c>
       <c r="E21">
         <f>E20+'Week 12'!E21</f>
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>
@@ -1124,7 +1127,7 @@
       </c>
       <c r="E21">
         <f>E20+'Week 13'!E21</f>
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>
@@ -1189,7 +1192,7 @@
       </c>
       <c r="E21">
         <f>E20+'Week 14'!E21</f>
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>
@@ -1254,7 +1257,7 @@
       </c>
       <c r="E21">
         <f>E20+'Week 14'!E21</f>
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>
@@ -1334,7 +1337,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="114.75" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" ht="102" x14ac:dyDescent="0.2">
       <c r="A4" s="5">
         <v>42015</v>
       </c>
@@ -2260,7 +2263,7 @@
   <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2303,7 +2306,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="5">
         <v>42068</v>
       </c>
@@ -2320,8 +2323,22 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D4" s="8"/>
+    <row r="4" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="5">
+        <v>42070</v>
+      </c>
+      <c r="B4" s="10">
+        <v>0.25</v>
+      </c>
+      <c r="C4" s="6">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="E4">
+        <v>4</v>
+      </c>
     </row>
     <row r="5" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D5" s="8"/>
@@ -2359,7 +2376,7 @@
       </c>
       <c r="E20">
         <f>SUM(E2:E19)</f>
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="21" spans="4:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -2368,7 +2385,7 @@
       </c>
       <c r="E21">
         <f>E20+'Week 8'!E21</f>
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>

--- a/assets/timeSheet-Stanley-Kenneth.xlsx
+++ b/assets/timeSheet-Stanley-Kenneth.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\visualpartsdb.com\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{157B7F10-84B5-4D37-824A-5BCB86CC6214}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E20249A2-7CC9-4FE3-91C9-6FC4C2D9D6A6}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-27555" yWindow="2280" windowWidth="28440" windowHeight="14310" tabRatio="560" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28755" yWindow="930" windowWidth="27315" windowHeight="11385" tabRatio="560" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Week 1" sheetId="1" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="46">
   <si>
     <t>Weekley Total</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -185,6 +185,12 @@
   </si>
   <si>
     <t>Completed the "My List" functions. Started on the export functions to excel for "My List"</t>
+  </si>
+  <si>
+    <t>Created method to export entire list to Excel. Cleaned up the Sytle a bit. Bug fixes.</t>
+  </si>
+  <si>
+    <t>Worked on cleaning up the style and making sure the responsive is working correctly</t>
   </si>
 </sst>
 </file>
@@ -825,8 +831,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView view="pageLayout" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" view="pageLayout" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -852,13 +858,77 @@
         <v>5</v>
       </c>
     </row>
+    <row r="2" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A2" s="5">
+        <v>42070</v>
+      </c>
+      <c r="B2" s="6">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="C2" s="6">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="5">
+        <v>42071</v>
+      </c>
+      <c r="B3" s="6">
+        <v>0.375</v>
+      </c>
+      <c r="C3" s="6">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D4" s="8"/>
+    </row>
+    <row r="5" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D5" s="8"/>
+    </row>
+    <row r="6" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D6" s="8"/>
+    </row>
+    <row r="7" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D7" s="8"/>
+    </row>
+    <row r="8" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D8" s="8"/>
+    </row>
+    <row r="9" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D9" s="8"/>
+    </row>
+    <row r="10" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D10" s="8"/>
+    </row>
+    <row r="11" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D11" s="8"/>
+    </row>
+    <row r="12" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D12" s="8"/>
+    </row>
+    <row r="13" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D13" s="8"/>
+    </row>
     <row r="20" spans="4:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D20" s="4" t="s">
         <v>0</v>
       </c>
       <c r="E20">
         <f>SUM(E2:E19)</f>
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="21" spans="4:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -867,7 +937,7 @@
       </c>
       <c r="E21">
         <f>E20+'Week 9'!E21</f>
-        <v>144</v>
+        <v>151</v>
       </c>
     </row>
   </sheetData>
@@ -932,7 +1002,7 @@
       </c>
       <c r="E21">
         <f>E20+'Week 10'!E21</f>
-        <v>144</v>
+        <v>151</v>
       </c>
     </row>
   </sheetData>
@@ -997,7 +1067,7 @@
       </c>
       <c r="E21">
         <f>E20+'Week 11'!E21</f>
-        <v>144</v>
+        <v>151</v>
       </c>
     </row>
   </sheetData>
@@ -1062,7 +1132,7 @@
       </c>
       <c r="E21">
         <f>E20+'Week 12'!E21</f>
-        <v>144</v>
+        <v>151</v>
       </c>
     </row>
   </sheetData>
@@ -1127,7 +1197,7 @@
       </c>
       <c r="E21">
         <f>E20+'Week 13'!E21</f>
-        <v>144</v>
+        <v>151</v>
       </c>
     </row>
   </sheetData>
@@ -1192,7 +1262,7 @@
       </c>
       <c r="E21">
         <f>E20+'Week 14'!E21</f>
-        <v>144</v>
+        <v>151</v>
       </c>
     </row>
   </sheetData>
@@ -1257,7 +1327,7 @@
       </c>
       <c r="E21">
         <f>E20+'Week 14'!E21</f>
-        <v>144</v>
+        <v>151</v>
       </c>
     </row>
   </sheetData>
@@ -2262,8 +2332,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView view="pageLayout" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/assets/timeSheet-Stanley-Kenneth.xlsx
+++ b/assets/timeSheet-Stanley-Kenneth.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\visualpartsdb.com\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E20249A2-7CC9-4FE3-91C9-6FC4C2D9D6A6}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8A5DB9D-927F-4D64-8FDC-FC390E26F678}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28755" yWindow="930" windowWidth="27315" windowHeight="11385" tabRatio="560" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="48">
   <si>
     <t>Weekley Total</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -191,6 +191,12 @@
   </si>
   <si>
     <t>Worked on cleaning up the style and making sure the responsive is working correctly</t>
+  </si>
+  <si>
+    <t>Fixed some bugs in the user list features</t>
+  </si>
+  <si>
+    <t>Fixed some styling issues. Revamped the grid. Created a SKU update feature.</t>
   </si>
 </sst>
 </file>
@@ -832,7 +838,7 @@
   <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -893,10 +899,38 @@
       </c>
     </row>
     <row r="4" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D4" s="8"/>
-    </row>
-    <row r="5" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D5" s="8"/>
+      <c r="A4" s="5">
+        <v>42072</v>
+      </c>
+      <c r="B4" s="6">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="C4" s="6">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="E4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="5">
+        <v>42073</v>
+      </c>
+      <c r="B5" s="10">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="C5" s="10">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="E5">
+        <v>8</v>
+      </c>
     </row>
     <row r="6" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D6" s="8"/>
@@ -928,7 +962,7 @@
       </c>
       <c r="E20">
         <f>SUM(E2:E19)</f>
-        <v>7</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21" spans="4:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -937,7 +971,7 @@
       </c>
       <c r="E21">
         <f>E20+'Week 9'!E21</f>
-        <v>151</v>
+        <v>162</v>
       </c>
     </row>
   </sheetData>
@@ -1002,7 +1036,7 @@
       </c>
       <c r="E21">
         <f>E20+'Week 10'!E21</f>
-        <v>151</v>
+        <v>162</v>
       </c>
     </row>
   </sheetData>
@@ -1067,7 +1101,7 @@
       </c>
       <c r="E21">
         <f>E20+'Week 11'!E21</f>
-        <v>151</v>
+        <v>162</v>
       </c>
     </row>
   </sheetData>
@@ -1132,7 +1166,7 @@
       </c>
       <c r="E21">
         <f>E20+'Week 12'!E21</f>
-        <v>151</v>
+        <v>162</v>
       </c>
     </row>
   </sheetData>
@@ -1197,7 +1231,7 @@
       </c>
       <c r="E21">
         <f>E20+'Week 13'!E21</f>
-        <v>151</v>
+        <v>162</v>
       </c>
     </row>
   </sheetData>
@@ -1262,7 +1296,7 @@
       </c>
       <c r="E21">
         <f>E20+'Week 14'!E21</f>
-        <v>151</v>
+        <v>162</v>
       </c>
     </row>
   </sheetData>
@@ -1327,7 +1361,7 @@
       </c>
       <c r="E21">
         <f>E20+'Week 14'!E21</f>
-        <v>151</v>
+        <v>162</v>
       </c>
     </row>
   </sheetData>

--- a/assets/timeSheet-Stanley-Kenneth.xlsx
+++ b/assets/timeSheet-Stanley-Kenneth.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21425"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\visualpartsdb.com\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8A5DB9D-927F-4D64-8FDC-FC390E26F678}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBD21798-618E-412C-968D-29E3455E6341}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28755" yWindow="930" windowWidth="27315" windowHeight="11385" tabRatio="560" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="49">
   <si>
     <t>Weekley Total</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -197,6 +197,9 @@
   </si>
   <si>
     <t>Fixed some styling issues. Revamped the grid. Created a SKU update feature.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Add and modify part feature. </t>
   </si>
 </sst>
 </file>
@@ -837,8 +840,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -933,7 +936,21 @@
       </c>
     </row>
     <row r="6" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D6" s="8"/>
+      <c r="A6" s="5">
+        <v>42076</v>
+      </c>
+      <c r="B6" s="10">
+        <v>0.9375</v>
+      </c>
+      <c r="C6" s="6">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="E6">
+        <v>2.5</v>
+      </c>
     </row>
     <row r="7" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D7" s="8"/>
@@ -962,7 +979,7 @@
       </c>
       <c r="E20">
         <f>SUM(E2:E19)</f>
-        <v>18</v>
+        <v>20.5</v>
       </c>
     </row>
     <row r="21" spans="4:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -971,7 +988,7 @@
       </c>
       <c r="E21">
         <f>E20+'Week 9'!E21</f>
-        <v>162</v>
+        <v>164.5</v>
       </c>
     </row>
   </sheetData>
@@ -1036,7 +1053,7 @@
       </c>
       <c r="E21">
         <f>E20+'Week 10'!E21</f>
-        <v>162</v>
+        <v>164.5</v>
       </c>
     </row>
   </sheetData>
@@ -1101,7 +1118,7 @@
       </c>
       <c r="E21">
         <f>E20+'Week 11'!E21</f>
-        <v>162</v>
+        <v>164.5</v>
       </c>
     </row>
   </sheetData>
@@ -1166,7 +1183,7 @@
       </c>
       <c r="E21">
         <f>E20+'Week 12'!E21</f>
-        <v>162</v>
+        <v>164.5</v>
       </c>
     </row>
   </sheetData>
@@ -1231,7 +1248,7 @@
       </c>
       <c r="E21">
         <f>E20+'Week 13'!E21</f>
-        <v>162</v>
+        <v>164.5</v>
       </c>
     </row>
   </sheetData>
@@ -1296,7 +1313,7 @@
       </c>
       <c r="E21">
         <f>E20+'Week 14'!E21</f>
-        <v>162</v>
+        <v>164.5</v>
       </c>
     </row>
   </sheetData>
@@ -1361,7 +1378,7 @@
       </c>
       <c r="E21">
         <f>E20+'Week 14'!E21</f>
-        <v>162</v>
+        <v>164.5</v>
       </c>
     </row>
   </sheetData>

--- a/assets/timeSheet-Stanley-Kenneth.xlsx
+++ b/assets/timeSheet-Stanley-Kenneth.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\visualpartsdb.com\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBD21798-618E-412C-968D-29E3455E6341}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74A5A061-0DA5-4B25-86BF-5ED907675D47}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28755" yWindow="930" windowWidth="27315" windowHeight="11385" tabRatio="560" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28755" yWindow="930" windowWidth="27315" windowHeight="13875" tabRatio="772" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Week 1" sheetId="1" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="52">
   <si>
     <t>Weekley Total</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -200,6 +200,15 @@
   </si>
   <si>
     <t xml:space="preserve">Add and modify part feature. </t>
+  </si>
+  <si>
+    <t>Created a toggle and method for setting user roles</t>
+  </si>
+  <si>
+    <t>Redesigned the user methods to help with email verification and password reset</t>
+  </si>
+  <si>
+    <t>Test all features and fix some bugs throughout the program</t>
   </si>
 </sst>
 </file>
@@ -300,7 +309,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -324,6 +333,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="18" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -840,7 +850,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A4" workbookViewId="0">
+    <sheetView view="pageLayout" topLeftCell="A4" workbookViewId="0">
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
@@ -1011,8 +1021,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView view="pageLayout" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView tabSelected="1" view="pageLayout" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1038,13 +1048,103 @@
         <v>5</v>
       </c>
     </row>
+    <row r="2" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="5">
+        <v>42078</v>
+      </c>
+      <c r="B2" s="6">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="C2" s="6">
+        <v>0.5625</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="E2" s="11">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="5">
+        <v>42078</v>
+      </c>
+      <c r="B3" s="6">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="C3" s="6">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A4" s="5">
+        <v>42078</v>
+      </c>
+      <c r="B4" s="10">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="C4" s="6">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="E4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D5" s="8"/>
+    </row>
+    <row r="6" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D6" s="8"/>
+    </row>
+    <row r="7" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D7" s="8"/>
+    </row>
+    <row r="8" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D8" s="8"/>
+    </row>
+    <row r="9" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D9" s="8"/>
+    </row>
+    <row r="10" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D10" s="8"/>
+    </row>
+    <row r="11" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D11" s="8"/>
+    </row>
+    <row r="12" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D12" s="8"/>
+    </row>
+    <row r="13" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D13" s="8"/>
+    </row>
+    <row r="14" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D14" s="8"/>
+    </row>
+    <row r="15" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D15" s="8"/>
+    </row>
+    <row r="16" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D16" s="8"/>
+    </row>
+    <row r="17" spans="4:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D17" s="8"/>
+    </row>
     <row r="20" spans="4:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D20" s="4" t="s">
         <v>0</v>
       </c>
       <c r="E20">
         <f>SUM(E2:E19)</f>
-        <v>0</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="21" spans="4:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -1053,7 +1153,7 @@
       </c>
       <c r="E21">
         <f>E20+'Week 10'!E21</f>
-        <v>164.5</v>
+        <v>171</v>
       </c>
     </row>
   </sheetData>
@@ -1118,7 +1218,7 @@
       </c>
       <c r="E21">
         <f>E20+'Week 11'!E21</f>
-        <v>164.5</v>
+        <v>171</v>
       </c>
     </row>
   </sheetData>
@@ -1183,7 +1283,7 @@
       </c>
       <c r="E21">
         <f>E20+'Week 12'!E21</f>
-        <v>164.5</v>
+        <v>171</v>
       </c>
     </row>
   </sheetData>
@@ -1248,7 +1348,7 @@
       </c>
       <c r="E21">
         <f>E20+'Week 13'!E21</f>
-        <v>164.5</v>
+        <v>171</v>
       </c>
     </row>
   </sheetData>
@@ -1313,7 +1413,7 @@
       </c>
       <c r="E21">
         <f>E20+'Week 14'!E21</f>
-        <v>164.5</v>
+        <v>171</v>
       </c>
     </row>
   </sheetData>
@@ -1378,7 +1478,7 @@
       </c>
       <c r="E21">
         <f>E20+'Week 14'!E21</f>
-        <v>164.5</v>
+        <v>171</v>
       </c>
     </row>
   </sheetData>

--- a/assets/timeSheet-Stanley-Kenneth.xlsx
+++ b/assets/timeSheet-Stanley-Kenneth.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\visualpartsdb.com\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74A5A061-0DA5-4B25-86BF-5ED907675D47}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69E8CFE1-B226-4952-BDFA-413723E2EE02}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28755" yWindow="930" windowWidth="27315" windowHeight="13875" tabRatio="772" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-27630" yWindow="1320" windowWidth="21600" windowHeight="12810" tabRatio="772" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Week 1" sheetId="1" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="61">
   <si>
     <t>Weekley Total</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -209,6 +209,33 @@
   </si>
   <si>
     <t>Test all features and fix some bugs throughout the program</t>
+  </si>
+  <si>
+    <t>CS design work - Grid issues</t>
+  </si>
+  <si>
+    <t>CS design work - New design</t>
+  </si>
+  <si>
+    <t>CS design work - grid-template-column issues</t>
+  </si>
+  <si>
+    <t>CS design work - deleted 50+ classes and created two classes to handle grid wrap issues</t>
+  </si>
+  <si>
+    <t>CS design work - bug fixes</t>
+  </si>
+  <si>
+    <t>Started changing my PHP comment format to the standard</t>
+  </si>
+  <si>
+    <t>Continue with the PHP comment format</t>
+  </si>
+  <si>
+    <t>Tested all features to ensure the PHP and SQL had no errors</t>
+  </si>
+  <si>
+    <t>Rubic review and check off.</t>
   </si>
 </sst>
 </file>
@@ -309,7 +336,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -333,7 +360,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="18" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1019,10 +1045,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1061,7 +1087,7 @@
       <c r="D2" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="E2" s="11">
+      <c r="E2">
         <v>0.5</v>
       </c>
     </row>
@@ -1100,60 +1126,177 @@
       </c>
     </row>
     <row r="5" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D5" s="8"/>
+      <c r="A5" s="5">
+        <v>42080</v>
+      </c>
+      <c r="B5" s="6">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="C5" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="E5">
+        <v>4</v>
+      </c>
     </row>
     <row r="6" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D6" s="8"/>
+      <c r="A6" s="5">
+        <v>42081</v>
+      </c>
+      <c r="B6" s="6">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="C6" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="E6">
+        <v>4</v>
+      </c>
     </row>
     <row r="7" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D7" s="8"/>
-    </row>
-    <row r="8" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D8" s="8"/>
-    </row>
-    <row r="9" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D9" s="8"/>
-    </row>
-    <row r="10" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D10" s="8"/>
+      <c r="A7" s="5">
+        <v>42082</v>
+      </c>
+      <c r="B7" s="6">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="C7" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="E7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="5">
+        <v>42083</v>
+      </c>
+      <c r="B8" s="6">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="C8" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="E8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="5">
+        <v>42083</v>
+      </c>
+      <c r="B9" s="6">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="C9" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="E9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="5">
+        <v>42084</v>
+      </c>
+      <c r="B10" s="6">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="C10" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="E10">
+        <v>4</v>
+      </c>
     </row>
     <row r="11" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D11" s="8"/>
-    </row>
-    <row r="12" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D12" s="8"/>
+      <c r="A11" s="5">
+        <v>42087</v>
+      </c>
+      <c r="B11" s="6">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="C11" s="6">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="5">
+        <v>42088</v>
+      </c>
+      <c r="B12" s="6">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="C12" s="6">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
     </row>
     <row r="13" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D13" s="8"/>
+      <c r="A13" s="5">
+        <v>42089</v>
+      </c>
+      <c r="B13" s="6">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="C13" s="6">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
     </row>
     <row r="14" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D14" s="8"/>
     </row>
-    <row r="15" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D15" s="8"/>
-    </row>
-    <row r="16" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D16" s="8"/>
-    </row>
     <row r="17" spans="4:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D17" s="8"/>
-    </row>
-    <row r="20" spans="4:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D20" s="4" t="s">
+      <c r="D17" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="E20">
-        <f>SUM(E2:E19)</f>
-        <v>6.5</v>
-      </c>
-    </row>
-    <row r="21" spans="4:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D21" s="4" t="s">
+      <c r="E17">
+        <f>SUM(E2:E16)</f>
+        <v>39.5</v>
+      </c>
+    </row>
+    <row r="18" spans="4:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D18" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E21">
-        <f>E20+'Week 10'!E21</f>
-        <v>171</v>
+      <c r="E18">
+        <f>E17+'Week 10'!E21</f>
+        <v>204</v>
       </c>
     </row>
   </sheetData>
@@ -1217,8 +1360,8 @@
         <v>1</v>
       </c>
       <c r="E21">
-        <f>E20+'Week 11'!E21</f>
-        <v>171</v>
+        <f>E20+'Week 11'!E18</f>
+        <v>204</v>
       </c>
     </row>
   </sheetData>
@@ -1283,7 +1426,7 @@
       </c>
       <c r="E21">
         <f>E20+'Week 12'!E21</f>
-        <v>171</v>
+        <v>204</v>
       </c>
     </row>
   </sheetData>
@@ -1348,7 +1491,7 @@
       </c>
       <c r="E21">
         <f>E20+'Week 13'!E21</f>
-        <v>171</v>
+        <v>204</v>
       </c>
     </row>
   </sheetData>
@@ -1413,7 +1556,7 @@
       </c>
       <c r="E21">
         <f>E20+'Week 14'!E21</f>
-        <v>171</v>
+        <v>204</v>
       </c>
     </row>
   </sheetData>
@@ -1478,7 +1621,7 @@
       </c>
       <c r="E21">
         <f>E20+'Week 14'!E21</f>
-        <v>171</v>
+        <v>204</v>
       </c>
     </row>
   </sheetData>

--- a/assets/timeSheet-Stanley-Kenneth.xlsx
+++ b/assets/timeSheet-Stanley-Kenneth.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\visualpartsdb.com\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69E8CFE1-B226-4952-BDFA-413723E2EE02}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A09A9E6-7D85-4A8F-9CC3-CAC34D3F23FC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-27630" yWindow="1320" windowWidth="21600" windowHeight="12810" tabRatio="772" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5685" yWindow="1065" windowWidth="21600" windowHeight="12810" tabRatio="772" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Week 1" sheetId="1" r:id="rId1"/>
@@ -45,8 +45,42 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Ken</author>
+  </authors>
+  <commentList>
+    <comment ref="D4" authorId="0" shapeId="0" xr:uid="{F8E33C68-F619-4403-9FEF-34F9812E5B5D}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Ken:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="66">
   <si>
     <t>Weekley Total</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -236,13 +270,28 @@
   </si>
   <si>
     <t>Rubic review and check off.</t>
+  </si>
+  <si>
+    <t>Continue css bug fixes</t>
+  </si>
+  <si>
+    <t>Continue css bug fixes - considering building a CSS framework just for my site so that I'm not reusing the same code.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bug fixes, studying CSS, fix bug where images are going outside of their container </t>
+  </si>
+  <si>
+    <t>CSS bug fixes. My style.css has a lot of repeating code. After this class I will build a css framework for this project.</t>
+  </si>
+  <si>
+    <t>School</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Verdana"/>
@@ -262,6 +311,19 @@
     <font>
       <sz val="10"/>
       <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -336,7 +398,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -360,6 +422,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="18" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1047,7 +1112,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:E18"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" workbookViewId="0">
+    <sheetView view="pageLayout" topLeftCell="A4" workbookViewId="0">
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
@@ -1316,11 +1381,11 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView view="pageLayout" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1346,13 +1411,98 @@
         <v>5</v>
       </c>
     </row>
+    <row r="2" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="5">
+        <v>42090</v>
+      </c>
+      <c r="B2" s="6">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="C2" s="6">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="E2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="5">
+        <v>42091</v>
+      </c>
+      <c r="B3" s="6">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="C3" s="6">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="E3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="5">
+        <v>42092</v>
+      </c>
+      <c r="B4" s="6">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="C4" s="6">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="E4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="5">
+        <v>42094</v>
+      </c>
+      <c r="B5" s="6">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="C5" s="6">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="5">
+        <v>42095</v>
+      </c>
+      <c r="B6" s="6">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="C6" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+    </row>
     <row r="20" spans="4:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D20" s="4" t="s">
         <v>0</v>
       </c>
       <c r="E20">
         <f>SUM(E2:E19)</f>
-        <v>0</v>
+        <v>17</v>
       </c>
     </row>
     <row r="21" spans="4:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -1361,7 +1511,7 @@
       </c>
       <c r="E21">
         <f>E20+'Week 11'!E18</f>
-        <v>204</v>
+        <v>221</v>
       </c>
     </row>
   </sheetData>
@@ -1372,6 +1522,7 @@
     <oddHeader>&amp;C&amp;"Verdana,Bold"&amp;14Internet Technologies Project Time Sheet</oddHeader>
     <oddFooter>&amp;C&amp;A</oddFooter>
   </headerFooter>
+  <legacyDrawing r:id="rId2"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
       <mx:PLV Mode="1" OnePage="0" WScale="0"/>
@@ -1426,7 +1577,7 @@
       </c>
       <c r="E21">
         <f>E20+'Week 12'!E21</f>
-        <v>204</v>
+        <v>221</v>
       </c>
     </row>
   </sheetData>
@@ -1491,7 +1642,7 @@
       </c>
       <c r="E21">
         <f>E20+'Week 13'!E21</f>
-        <v>204</v>
+        <v>221</v>
       </c>
     </row>
   </sheetData>
@@ -1556,7 +1707,7 @@
       </c>
       <c r="E21">
         <f>E20+'Week 14'!E21</f>
-        <v>204</v>
+        <v>221</v>
       </c>
     </row>
   </sheetData>
@@ -1621,7 +1772,7 @@
       </c>
       <c r="E21">
         <f>E20+'Week 14'!E21</f>
-        <v>204</v>
+        <v>221</v>
       </c>
     </row>
   </sheetData>

--- a/assets/timeSheet-Stanley-Kenneth.xlsx
+++ b/assets/timeSheet-Stanley-Kenneth.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\visualpartsdb.com\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A09A9E6-7D85-4A8F-9CC3-CAC34D3F23FC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15226E70-97EF-4582-9F3F-6CB6273FDFB1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5685" yWindow="1065" windowWidth="21600" windowHeight="12810" tabRatio="772" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1950" yWindow="1950" windowWidth="21600" windowHeight="11385" tabRatio="772" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Week 1" sheetId="1" r:id="rId1"/>
@@ -80,7 +80,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="67">
   <si>
     <t>Weekley Total</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -285,6 +285,9 @@
   </si>
   <si>
     <t>School</t>
+  </si>
+  <si>
+    <t>Css bug fixes - aligning, color, and grid opportunities</t>
   </si>
 </sst>
 </file>
@@ -398,7 +401,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -422,9 +425,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="18" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1384,8 +1384,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" view="pageLayout" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1489,10 +1489,27 @@
       <c r="C6" s="6">
         <v>0.5</v>
       </c>
-      <c r="D6" s="11" t="s">
+      <c r="D6" s="9" t="s">
         <v>65</v>
       </c>
       <c r="E6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="5">
+        <v>42096</v>
+      </c>
+      <c r="B7" s="6">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="C7" s="6">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="E7">
         <v>2</v>
       </c>
     </row>
@@ -1502,7 +1519,7 @@
       </c>
       <c r="E20">
         <f>SUM(E2:E19)</f>
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21" spans="4:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -1511,7 +1528,7 @@
       </c>
       <c r="E21">
         <f>E20+'Week 11'!E18</f>
-        <v>221</v>
+        <v>223</v>
       </c>
     </row>
   </sheetData>
@@ -1577,7 +1594,7 @@
       </c>
       <c r="E21">
         <f>E20+'Week 12'!E21</f>
-        <v>221</v>
+        <v>223</v>
       </c>
     </row>
   </sheetData>
@@ -1642,7 +1659,7 @@
       </c>
       <c r="E21">
         <f>E20+'Week 13'!E21</f>
-        <v>221</v>
+        <v>223</v>
       </c>
     </row>
   </sheetData>
@@ -1707,7 +1724,7 @@
       </c>
       <c r="E21">
         <f>E20+'Week 14'!E21</f>
-        <v>221</v>
+        <v>223</v>
       </c>
     </row>
   </sheetData>
@@ -1772,7 +1789,7 @@
       </c>
       <c r="E21">
         <f>E20+'Week 14'!E21</f>
-        <v>221</v>
+        <v>223</v>
       </c>
     </row>
   </sheetData>

--- a/assets/timeSheet-Stanley-Kenneth.xlsx
+++ b/assets/timeSheet-Stanley-Kenneth.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\visualpartsdb.com\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15226E70-97EF-4582-9F3F-6CB6273FDFB1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{249D10FB-89AE-4493-A342-99A8B7256C88}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="1950" windowWidth="21600" windowHeight="11385" tabRatio="772" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3855" yWindow="615" windowWidth="21600" windowHeight="14505" tabRatio="772" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Week 1" sheetId="1" r:id="rId1"/>
@@ -80,7 +80,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="71">
   <si>
     <t>Weekley Total</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -288,6 +288,18 @@
   </si>
   <si>
     <t>Css bug fixes - aligning, color, and grid opportunities</t>
+  </si>
+  <si>
+    <t>Admin dashboard work - created several methods for block display on the dashboard</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Worked on an issue with an array sorting problem. The array wants to sort by KEY instead of by Value. I tried several methods to try and get it to sort by value. Every attempt resulted in the KEY getting overwritten with a different value IE: 0, 1, 2, 3 etc. This is currently unresolved. This is needed in order to show graphs correctly. </t>
+  </si>
+  <si>
+    <t>Attempted to create a method to sort an array without overwritting the KEY. No luck so far. I'm going to put this on the back burner until after this semester is over. Worked on some CSS responsive bugs. Went over the rubric to ensure everything is in order. Installed PHPDocs and cleaned up my code. Ready for demonstration.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Started one of my UDEMY PHP OOP/MVC classes. After reviewing a couple professional PHP developers code, I realized that I am not using all the tools that I could be. </t>
   </si>
 </sst>
 </file>
@@ -1384,8 +1396,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView view="pageLayout" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1550,10 +1562,10 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView view="pageLayout" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView tabSelected="1" view="pageLayout" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1579,22 +1591,131 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="4:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D20" s="4" t="s">
+    <row r="2" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="5">
+        <v>42097</v>
+      </c>
+      <c r="B2" s="6">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="C2" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="E2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A3" s="5">
+        <v>42098</v>
+      </c>
+      <c r="B3" s="6">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="C3" s="6">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="E3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="89.25" x14ac:dyDescent="0.2">
+      <c r="A4" s="5">
+        <v>42099</v>
+      </c>
+      <c r="B4" s="6">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="C4" s="6">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="E4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="89.25" x14ac:dyDescent="0.2">
+      <c r="A5" s="5">
+        <v>42100</v>
+      </c>
+      <c r="B5" s="6">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="C5" s="6">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="E5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+      <c r="A6" s="5">
+        <v>42101</v>
+      </c>
+      <c r="B6" s="6">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="C6" s="6">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D7" s="8"/>
+    </row>
+    <row r="8" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D8" s="8"/>
+    </row>
+    <row r="9" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D9" s="8"/>
+    </row>
+    <row r="10" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D10" s="8"/>
+    </row>
+    <row r="11" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D11" s="8"/>
+    </row>
+    <row r="12" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D12" s="8"/>
+    </row>
+    <row r="13" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D13" s="8"/>
+    </row>
+    <row r="14" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D14" s="8"/>
+    </row>
+    <row r="15" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D15" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="E20">
-        <f>SUM(E2:E19)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="4:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D21" s="4" t="s">
+      <c r="E15">
+        <f>SUM(E2:E14)</f>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D16" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E21">
-        <f>E20+'Week 12'!E21</f>
-        <v>223</v>
+      <c r="E16">
+        <f>E15+'Week 12'!E21</f>
+        <v>240</v>
       </c>
     </row>
   </sheetData>
@@ -1658,8 +1779,8 @@
         <v>1</v>
       </c>
       <c r="E21">
-        <f>E20+'Week 13'!E21</f>
-        <v>223</v>
+        <f>E20+'Week 13'!E16</f>
+        <v>240</v>
       </c>
     </row>
   </sheetData>
@@ -1724,7 +1845,7 @@
       </c>
       <c r="E21">
         <f>E20+'Week 14'!E21</f>
-        <v>223</v>
+        <v>240</v>
       </c>
     </row>
   </sheetData>
@@ -1789,7 +1910,7 @@
       </c>
       <c r="E21">
         <f>E20+'Week 14'!E21</f>
-        <v>223</v>
+        <v>240</v>
       </c>
     </row>
   </sheetData>

--- a/assets/timeSheet-Stanley-Kenneth.xlsx
+++ b/assets/timeSheet-Stanley-Kenneth.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\visualpartsdb.com\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{249D10FB-89AE-4493-A342-99A8B7256C88}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{388D73E7-C131-4367-A6E3-C48A1BA08A3A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3855" yWindow="615" windowWidth="21600" windowHeight="14505" tabRatio="772" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -80,7 +80,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="72">
   <si>
     <t>Weekley Total</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -299,7 +299,10 @@
     <t>Attempted to create a method to sort an array without overwritting the KEY. No luck so far. I'm going to put this on the back burner until after this semester is over. Worked on some CSS responsive bugs. Went over the rubric to ensure everything is in order. Installed PHPDocs and cleaned up my code. Ready for demonstration.</t>
   </si>
   <si>
-    <t xml:space="preserve">Started one of my UDEMY PHP OOP/MVC classes. After reviewing a couple professional PHP developers code, I realized that I am not using all the tools that I could be. </t>
+    <t>Started one of my UDEMY PHP OOP/MVC classes. After reviewing a couple professional PHP developers code, I realized that I am not using all the tools that I could be. Having trouble recording HOWTO videos with good quality. Looking for another recording tool. Fixed a couple CSS bugs that I happened to notice.</t>
+  </si>
+  <si>
+    <t>Started incorperating Amazon product links. Setup new table for ads with sku_id as fkey. Placed a new grid box for banner placement.</t>
   </si>
 </sst>
 </file>
@@ -1562,10 +1565,10 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:XFD10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1659,7 +1662,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A6" s="5">
         <v>42101</v>
       </c>
@@ -1676,46 +1679,42 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D7" s="8"/>
+    <row r="7" spans="1:5" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A7" s="5">
+        <v>42101</v>
+      </c>
+      <c r="B7" s="6">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="C7" s="6">
+        <v>0</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
     </row>
     <row r="8" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D8" s="8"/>
     </row>
     <row r="9" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D9" s="8"/>
+      <c r="D9" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <f>SUM(E2:E8)</f>
+        <v>19</v>
+      </c>
     </row>
     <row r="10" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D10" s="8"/>
-    </row>
-    <row r="11" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D11" s="8"/>
-    </row>
-    <row r="12" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D12" s="8"/>
-    </row>
-    <row r="13" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D13" s="8"/>
-    </row>
-    <row r="14" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D14" s="8"/>
-    </row>
-    <row r="15" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D15" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="E15">
-        <f>SUM(E2:E14)</f>
-        <v>17</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D16" s="4" t="s">
+      <c r="D10" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E16">
-        <f>E15+'Week 12'!E21</f>
-        <v>240</v>
+      <c r="E10">
+        <f>E9+'Week 12'!E21</f>
+        <v>242</v>
       </c>
     </row>
   </sheetData>
@@ -1779,8 +1778,8 @@
         <v>1</v>
       </c>
       <c r="E21">
-        <f>E20+'Week 13'!E16</f>
-        <v>240</v>
+        <f>E20+'Week 13'!E10</f>
+        <v>242</v>
       </c>
     </row>
   </sheetData>
@@ -1845,7 +1844,7 @@
       </c>
       <c r="E21">
         <f>E20+'Week 14'!E21</f>
-        <v>240</v>
+        <v>242</v>
       </c>
     </row>
   </sheetData>
@@ -1910,7 +1909,7 @@
       </c>
       <c r="E21">
         <f>E20+'Week 14'!E21</f>
-        <v>240</v>
+        <v>242</v>
       </c>
     </row>
   </sheetData>
